--- a/neurips/neurips_2024.xlsx
+++ b/neurips/neurips_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cs project\AI_for_Science_paper_collection\neurips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403633D3-64B2-4D43-9799-98421DEF8D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995B419-FA72-49C0-84CE-452CF154588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A441A1A6-90FC-4E44-BE49-D86CF9C0DCBD}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/neurips/neurips_2024.xlsx
+++ b/neurips/neurips_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cs project\AI_for_Science_paper_collection\neurips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995B419-FA72-49C0-84CE-452CF154588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403633D3-64B2-4D43-9799-98421DEF8D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A441A1A6-90FC-4E44-BE49-D86CF9C0DCBD}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
